--- a/src/main/output/Defection-Simulation-Output-1.xlsx
+++ b/src/main/output/Defection-Simulation-Output-1.xlsx
@@ -497,252 +497,252 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 0</t>
+          <t>0 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 0</t>
+          <t>0 - Intoxication Level</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 0</t>
+          <t>0 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Change 0</t>
+          <t>0 - Change</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>--0--</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 1</t>
+          <t>1 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 1</t>
+          <t>1 - Intoxication Level</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 1</t>
+          <t>1 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Change 1</t>
+          <t>1 - Change</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>--1--</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 2</t>
+          <t>2 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 2</t>
+          <t>2 - Intoxication Level</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 2</t>
+          <t>2 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Change 2</t>
+          <t>2 - Change</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>--2--</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 3</t>
+          <t>3 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 3</t>
+          <t>3 - Intoxication Level</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 3</t>
+          <t>3 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Change 3</t>
+          <t>3 - Change</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>--3--</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 4</t>
+          <t>4 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 4</t>
+          <t>4 - Intoxication Level</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 4</t>
+          <t>4 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Change 4</t>
+          <t>4 - Change</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>--4--</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 5</t>
+          <t>5 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 5</t>
+          <t>5 - Intoxication Level</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 5</t>
+          <t>5 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Change 5</t>
+          <t>5 - Change</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>--5--</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 6</t>
+          <t>6 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 6</t>
+          <t>6 - Intoxication Level</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 6</t>
+          <t>6 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Change 6</t>
+          <t>6 - Change</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>--6--</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 7</t>
+          <t>7 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 7</t>
+          <t>7 - Intoxication Level</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 7</t>
+          <t>7 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Change 7</t>
+          <t>7 - Change</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>--7--</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 8</t>
+          <t>8 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 8</t>
+          <t>8 - Intoxication Level</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 8</t>
+          <t>8 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Change 8</t>
+          <t>8 - Change</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>--8--</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Num Agents Intervene 9</t>
+          <t>9 - Num Agents Intervene</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Intoxication Level 9</t>
+          <t>9 - Intoxication Level</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Mean Internal Pressure 9</t>
+          <t>9 - Mean Internal Pressure</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Change 9</t>
+          <t>9 - Change</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>--9--</t>
         </is>
       </c>
     </row>
@@ -751,112 +751,112 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3420116462654033</v>
+        <v>0.3561367036230254</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>0.03</v>
       </c>
       <c r="I2" t="n">
-        <v>0.321141289982514</v>
+        <v>0.3133380508577212</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M2" t="n">
         <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2853496645055599</v>
+        <v>0.2764471135028133</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="n">
         <v>0.09</v>
       </c>
       <c r="S2" t="n">
-        <v>0.267038831919768</v>
+        <v>0.2658325791061682</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W2" t="n">
         <v>0.12</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2319054317697604</v>
+        <v>0.2346164910046661</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>0.15</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2026159495406644</v>
+        <v>0.1983853804462573</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
         <v>0.18</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1700378003492734</v>
+        <v>0.1659673467883452</v>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>0.21</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1412538921723773</v>
+        <v>0.1545276717446003</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.24</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1146361571800033</v>
+        <v>0.112986696892379</v>
       </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>0.27</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.07900614914108284</v>
+        <v>0.07784026212335429</v>
       </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
@@ -866,133 +866,133 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003503301290104091</v>
+        <v>0.0003102094559148748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3416613161363929</v>
+        <v>0.3558264941671104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003503301290104091</v>
+        <v>0.0003102094559148748</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03057164059722117</v>
+        <v>0.03029265736434717</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2905696493852929</v>
+        <v>0.283045393493374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005716405972211674</v>
+        <v>0.0002926573643471761</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0605752400012944</v>
+        <v>0.06011103329722341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2247744245042655</v>
+        <v>0.2163360802055899</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0005752400012944008</v>
+        <v>0.0001110332972234131</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09078029079293075</v>
+        <v>0.0903826385024567</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1762585411268373</v>
+        <v>0.1754499406037115</v>
       </c>
       <c r="T3" t="n">
-        <v>0.000780290792930757</v>
+        <v>0.0003826385024566989</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1206916308016272</v>
+        <v>0.1203920595112002</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1151139047597533</v>
+        <v>0.1176163041390097</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0006916308016272527</v>
+        <v>0.0003920595112002068</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1508699917815323</v>
+        <v>0.1503445657614172</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06929420768229624</v>
+        <v>0.0693250726926283</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0008699917815323429</v>
+        <v>0.0003445657614171615</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1803522463263255</v>
+        <v>0.1801713349059526</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.03453864817494862</v>
+        <v>0.02970750822346103</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0003522463263254921</v>
+        <v>0.0001713349059526543</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2103089303473135</v>
+        <v>0.2100727687049954</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01278006738114554</v>
+        <v>0.01432152959296357</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0003089303473135212</v>
+        <v>7.276870499542713e-05</v>
       </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.24</v>
+        <v>0.2402513399288232</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0006776644322188208</v>
+        <v>0.0008480861171271143</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.0002513399288232407</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2700166394244951</v>
+        <v>0.2702915657528606</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.663942449504874e-05</v>
+        <v>0.0002915657528605408</v>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
@@ -1001,88 +1001,88 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009102978072206469</v>
+        <v>0.0005039352611337142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3407510183291722</v>
+        <v>0.3553225589059767</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005599676782102378</v>
+        <v>0.0001937258052188393</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03129038880908638</v>
+        <v>0.03050624584393881</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2592792605762064</v>
+        <v>0.2525391476494352</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007187482118652186</v>
+        <v>0.0002135884795916329</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06112994628365553</v>
+        <v>0.06022727819239146</v>
       </c>
       <c r="N4" t="n">
-        <v>0.16364447822061</v>
+        <v>0.1561088020131985</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005547062823611306</v>
+        <v>0.0001162448951680443</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>11</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09151295122717766</v>
+        <v>0.09068465793130477</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0931633472258961</v>
+        <v>0.09323887100710973</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0007326604342469149</v>
+        <v>0.0003020194288480634</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1211595128711751</v>
+        <v>0.12073632465296</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03539931752899918</v>
+        <v>0.03190272745603805</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0004678820695478214</v>
+        <v>0.0003442651417597911</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1516968318250137</v>
+        <v>0.1505490999580072</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.004463896395895077</v>
+        <v>0.003583586685587008</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0008268400434813903</v>
+        <v>0.0002045341965900253</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1803522463263255</v>
+        <v>0.1801713349059526</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2103089303473135</v>
+        <v>0.2100727687049954</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1104,10 +1104,18 @@
         <v>0</v>
       </c>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2403727448069443</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
@@ -1120,74 +1128,82 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001364088158617079</v>
+        <v>0.0008521881687926047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.339386930170555</v>
+        <v>0.3544703707371841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004537903513964315</v>
+        <v>0.0003482529076588905</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03217662884065715</v>
+        <v>0.03074425274781081</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2271026317355493</v>
+        <v>0.2217948949016243</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008862400315707662</v>
+        <v>0.0002380069038720023</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06169315519191992</v>
+        <v>0.06031814605479038</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1048719457753279</v>
+        <v>0.09875380065904854</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005632089082643913</v>
+        <v>9.086786239891413e-05</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09197244377269537</v>
+        <v>0.09092849276709139</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03408965006476362</v>
+        <v>0.0356218691886558</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0004594925455177125</v>
+        <v>0.0002438348357866154</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1213161181675765</v>
+        <v>0.1207216461128232</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001013851663525358</v>
+        <v>0.0001609746702624684</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0001566052964014444</v>
+        <v>9.924410628374736e-05</v>
       </c>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1502255223821046</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1215,61 +1231,69 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001746564112824195</v>
+        <v>0.00089079771749338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.337640366057731</v>
+        <v>0.3535795730196908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000382475954207117</v>
+        <v>3.860954870077528e-05</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03301898632870919</v>
+        <v>0.03095752592121065</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1940836454068401</v>
+        <v>0.1908373689804137</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008423574880520477</v>
+        <v>0.0002132731733998366</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06203715197284054</v>
+        <v>0.06031814605479038</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05952628653547046</v>
+        <v>0.05713729897883953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003439967809206197</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09209392071361325</v>
+        <v>0.09100354579517331</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00378019322879182</v>
+        <v>0.004612483998103422</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001214769409178827</v>
+        <v>7.505302808191378e-05</v>
       </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1210369178397131</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -1302,55 +1326,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002507673580190216</v>
+        <v>0.001237481937854613</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3351326924775407</v>
+        <v>0.3523420910818361</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007611094673660207</v>
+        <v>0.000346684220361233</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03377870483337812</v>
+        <v>0.03112745855832079</v>
       </c>
       <c r="I7" t="n">
-        <v>0.160304940573462</v>
+        <v>0.1597099104220929</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000759718504668934</v>
+        <v>0.0001699326371101417</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06215110523960246</v>
+        <v>0.06031814605479038</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02785897219178882</v>
+        <v>0.02885401078182403</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001139532667619217</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09209392071361325</v>
+        <v>0.0914848040219438</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.69327389521274e-05</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1389,39 +1413,39 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003091540578068546</v>
+        <v>0.001602250784839397</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3320411518994721</v>
+        <v>0.3507398402969968</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005838669978783291</v>
+        <v>0.0003647688469847841</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03450552922163858</v>
+        <v>0.03128088865240539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1267833915923837</v>
+        <v>0.1289219482238071</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007268243882604573</v>
+        <v>0.000153430094084598</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06215110523960246</v>
+        <v>0.06031814605479038</v>
       </c>
       <c r="N8" t="n">
-        <v>0.008378331462535787</v>
+        <v>0.009627307242368344</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1468,35 +1492,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003499972139641919</v>
+        <v>0.001946379245750206</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3285411797598302</v>
+        <v>0.3487934610512465</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004084315615733736</v>
+        <v>0.0003441284609108085</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03508848980231572</v>
+        <v>0.03139883286814128</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09655798043032951</v>
+        <v>0.1009721624927042</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005829605806771405</v>
+        <v>0.0001179442157358928</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.06031814605479038</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0005993312262165268</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1539,35 +1571,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004173691464651592</v>
+        <v>0.002193651321009385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3243674882951787</v>
+        <v>0.3465998097302372</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0006737193250096722</v>
+        <v>0.0002472720752591796</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03560855432211964</v>
+        <v>0.03144846476314093</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07167936910168979</v>
+        <v>0.07625304560597837</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005200645198039156</v>
+        <v>4.963189499964924e-05</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.06040290355468016</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1610,29 +1650,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004905600600939998</v>
+        <v>0.002458408769209949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3194618876942387</v>
+        <v>0.3441414009610272</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007319091362884058</v>
+        <v>0.0002647574482005638</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0360191183494061</v>
+        <v>0.03144846476314093</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05029032175632555</v>
+        <v>0.05462712963113631</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0004105640272864666</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1684,26 +1724,26 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005757829564082034</v>
+        <v>0.002683868679548907</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3137040581301567</v>
+        <v>0.3414575322814783</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0008522289631420358</v>
+        <v>0.0002254599103389572</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03627863981055198</v>
+        <v>0.03144846476314093</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03186078098779226</v>
+        <v>0.03635615246230028</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002595214611458786</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1752,29 +1792,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006401874645832358</v>
+        <v>0.003056951328100953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3073021834843243</v>
+        <v>0.3384005809533774</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000644045081750325</v>
+        <v>0.0003730826485520466</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03636954553382308</v>
+        <v>0.03144846476314093</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01678465254569979</v>
+        <v>0.02260153895367915</v>
       </c>
       <c r="J13" t="n">
-        <v>9.090572327109887e-05</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1823,26 +1863,26 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006969991845045152</v>
+        <v>0.003408475740463701</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3003321916392792</v>
+        <v>0.3349921052129137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005681171992127942</v>
+        <v>0.0003515244123627483</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03636954553382308</v>
+        <v>0.03058958445781268</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007369353243509705</v>
+        <v>0.02285272697597739</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1897,23 +1937,23 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00743296785662158</v>
+        <v>0.003775092961947184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2928992237826576</v>
+        <v>0.3312170122509664</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0004629760115764275</v>
+        <v>0.0003666172214834819</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03636954553382308</v>
+        <v>0.03058958445781268</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001510720679062179</v>
+        <v>0.01119548289574268</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1965,22 +2005,30 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007854672645760308</v>
+        <v>0.004029082451912257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2850445511368973</v>
+        <v>0.3271879297990543</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004217047891387288</v>
+        <v>0.0002539894899650743</v>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03081553001473296</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.003952766163170455</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -2028,22 +2076,30 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008470735016912305</v>
+        <v>0.004352014193374918</v>
       </c>
       <c r="D17" t="n">
-        <v>0.276573816119985</v>
+        <v>0.3228359156056794</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0006160623711519966</v>
+        <v>0.0003229317414626602</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03081553001473296</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0003046545104648309</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -2091,16 +2147,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009182965764074782</v>
+        <v>0.004724198276844978</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2673908503559101</v>
+        <v>0.3181117173288343</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000712230747162477</v>
+        <v>0.0003721840834700599</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2154,16 +2210,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01006523562999771</v>
+        <v>0.005003987743724501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2573256147259124</v>
+        <v>0.3131077295851098</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0008822698659229312</v>
+        <v>0.000279789466879522</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2217,16 +2273,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01064965264443373</v>
+        <v>0.005331483947287394</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2466759620814787</v>
+        <v>0.3077762456378224</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005844170144360201</v>
+        <v>0.0003274962035628941</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2280,16 +2336,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0111596415340867</v>
+        <v>0.005653915241100366</v>
       </c>
       <c r="D21" t="n">
-        <v>0.235516320547392</v>
+        <v>0.302122330396722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005099888896529691</v>
+        <v>0.0003224312938129711</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2343,16 +2399,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01193991290462237</v>
+        <v>0.005954287943100926</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2235764076427696</v>
+        <v>0.2961680424536212</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0007802713705356731</v>
+        <v>0.0003003727020005612</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2406,16 +2462,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01268197655386325</v>
+        <v>0.006282081101825115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2108944310889063</v>
+        <v>0.289885961351796</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0007420636492408815</v>
+        <v>0.0003277931587241893</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2469,16 +2525,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01344922175228195</v>
+        <v>0.00668396994885307</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1974452093366244</v>
+        <v>0.283201991402943</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0007672451984186928</v>
+        <v>0.0004018888470279552</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2532,16 +2588,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01402536009011051</v>
+        <v>0.007077503833444959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1834198492465139</v>
+        <v>0.276124487569498</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0005761383378285648</v>
+        <v>0.0003935338845918889</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2595,16 +2651,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01452387975328846</v>
+        <v>0.007492965798629049</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1688959694932254</v>
+        <v>0.2686315217708689</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004985196631779515</v>
+        <v>0.0004154619651840893</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -2658,16 +2714,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01510868744567463</v>
+        <v>0.007958363587593277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1537872820475508</v>
+        <v>0.2606731581832757</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005848076923861632</v>
+        <v>0.0004653977889642275</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -2721,16 +2777,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01565984704596932</v>
+        <v>0.008411425912996736</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1381960142643466</v>
+        <v>0.2522617322702789</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005511596002946927</v>
+        <v>0.0004530623254034579</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -2784,16 +2840,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01620169694163169</v>
+        <v>0.008652729734256456</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1229828786675219</v>
+        <v>0.2436090025360224</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005418498956623732</v>
+        <v>0.00024130382125972</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -2847,16 +2903,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01661847844820755</v>
+        <v>0.008900440441182387</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1084819392995724</v>
+        <v>0.2347085620948401</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0004167815065758581</v>
+        <v>0.0002477107069259315</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2910,16 +2966,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01701616854645617</v>
+        <v>0.009313257642648769</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09470100631015192</v>
+        <v>0.2253953044521913</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0003976900982486184</v>
+        <v>0.0004128172014663827</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -2973,16 +3029,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01736396301217322</v>
+        <v>0.009647384189588357</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08133311496951066</v>
+        <v>0.215747920262603</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000347794465717051</v>
+        <v>0.0003341265469395873</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -3036,16 +3092,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01769679457752532</v>
+        <v>0.009981337788908138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06838645453654491</v>
+        <v>0.2057665824736948</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003328315653520986</v>
+        <v>0.000333953599319781</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3099,16 +3155,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01796145448727387</v>
+        <v>0.01031368616715011</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05650030438809313</v>
+        <v>0.1954528963065447</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002646599097485516</v>
+        <v>0.0003323483782419682</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -3162,16 +3218,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01814016267038048</v>
+        <v>0.01064294928538692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04585572488117937</v>
+        <v>0.1848099470211577</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0001787081831066101</v>
+        <v>0.0003292631182368137</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3225,16 +3281,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0182546750661637</v>
+        <v>0.01101088889298286</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03636779712906238</v>
+        <v>0.1737990581281749</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001145123957832257</v>
+        <v>0.000367939607595934</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -3288,16 +3344,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01828847992894855</v>
+        <v>0.01131902515458097</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02811421715392836</v>
+        <v>0.1624800329735939</v>
       </c>
       <c r="E37" t="n">
-        <v>3.380486278484412e-05</v>
+        <v>0.0003081362615981146</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -3351,16 +3407,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01828847992894855</v>
+        <v>0.01164900390829605</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02158591446847526</v>
+        <v>0.1509054921695278</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.0003299787537150755</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -3414,16 +3470,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01828847992894855</v>
+        <v>0.01200479339170099</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01593422158638287</v>
+        <v>0.1395967151795965</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.0003557894834049388</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -3476,10 +3532,18 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01231160582520048</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1286973054477684</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0003068124334994971</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -3531,10 +3595,18 @@
       <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01261207134282651</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1178151054196588</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0003004655176260327</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -3586,10 +3658,18 @@
       <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01287402115742356</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.107159308612182</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0002619498145970485</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -3641,10 +3721,18 @@
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01311279773393725</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.09647912925833876</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0002387765765136861</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -3696,10 +3784,18 @@
       <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01336981057408952</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.08624802685616412</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.000257012840152271</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -3751,10 +3847,18 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01359276976924196</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0764397073058261</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0002229591951524442</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3806,10 +3910,18 @@
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01380569980298729</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.06699603677962006</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0002129300337453252</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -3861,10 +3973,18 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01396718358325113</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.05787565216744799</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0001614837802638398</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -3916,10 +4036,18 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01411623598520811</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0489256405030145</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0001490524019569768</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3971,10 +4099,18 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01422014875535661</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.04062874445069809</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0001039127701484984</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -4026,10 +4162,18 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01430402747241028</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.03267530731992511</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.387871705367798e-05</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -4081,10 +4225,18 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01435722342427164</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02533106168474648</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.319595186135755e-05</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -4136,10 +4288,18 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01899070486306296</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.834822781720758e-05</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -4191,10 +4351,18 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01388027849746749</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -4246,10 +4414,18 @@
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.009655308524739227</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -4301,10 +4477,18 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.006081523257741026</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -4356,10 +4540,18 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.003366780191178972</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -4411,10 +4603,18 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01437557165208885</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.001570927819877876</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -4466,10 +4666,18 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04684110169485372</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -4521,10 +4729,18 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.04101450939935861</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -4576,10 +4792,18 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.03550830065735176</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -4631,10 +4855,18 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.03051411355334175</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -4686,10 +4918,18 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.02601730994507834</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -4741,10 +4981,18 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.02160716119389608</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -4796,10 +5044,18 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01754095789182288</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -4851,10 +5107,18 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0137686700789534</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -4906,10 +5170,18 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01043293903614226</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -4961,10 +5233,18 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.007684999626993884</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -5016,10 +5296,18 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.005175215468745604</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -5071,10 +5359,18 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01061289720982667</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.003113452064179983</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -5126,10 +5422,18 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.008475507339368525</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.01918728538492162</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -5181,10 +5485,18 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.008475507339368525</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01645222768313254</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -5236,10 +5548,18 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.008475507339368525</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01390532925806306</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -5291,10 +5611,18 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.007692886753801478</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.02520865466559071</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -5346,10 +5674,18 @@
       <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.007692886753801478</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.02224912982472388</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -5401,10 +5737,18 @@
       <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.007692886753801478</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01939317043857627</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -5456,10 +5800,18 @@
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.007692886753801478</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01654680233966973</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -5511,10 +5863,18 @@
       <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.007854154042730521</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0130922834208576</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -5566,10 +5926,18 @@
       <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.006931488301103627</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.04213514027338641</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -5621,10 +5989,18 @@
       <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.006931488301103627</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.03859433196016827</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -5676,10 +6052,18 @@
       <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.007482860758970192</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0153389148987426</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -5731,10 +6115,18 @@
       <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.007038091292765755</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01623810088802724</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -5786,10 +6178,18 @@
       <c r="A82" t="n">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.007038091292765755</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01385856581312653</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -5841,10 +6241,18 @@
       <c r="A83" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.007038091292765755</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01162061954222103</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -5896,10 +6304,18 @@
       <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.007038091292765755</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.00947261736248209</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -5951,10 +6367,18 @@
       <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.007023265057054313</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.006479896710659313</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
